--- a/BackTest/2020-01-13 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-13 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3190,7 +3190,7 @@
         <v>-85089.49466319998</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-84281.28906319998</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-84155.69706319997</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-84155.69706319997</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-83770.79986319997</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-83328.65046319997</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-83328.65046319997</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-83088.24416319997</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-83113.64416319996</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-82884.59436319997</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-82915.42436319997</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-82453.54706319998</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-82207.50916319998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-82416.94416319998</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-82628.64356319998</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-82334.65156319998</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-83535.14566319998</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-83052.39566319998</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-84788.70906319997</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-85121.57926319998</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-85578.56876319998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-84811.19946319997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-84252.22466319997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-85834.59816319997</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-85228.41896319998</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-87270.70616319998</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-86860.62076319999</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-88666.30976319998</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-88561.73976319998</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-89593.30156319997</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-89331.71156319998</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-88876.58186319997</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-90276.78226319997</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-92167.48716319998</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-88450.96826319997</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-88547.00826319998</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-88110.11176319998</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-88264.49976319999</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-88198.31676319998</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-89151.52986319998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-88899.83106319998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-89629.54646319998</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-89783.45666319998</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-89651.10626319998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-89651.10626319998</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-89929.03966319998</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-89809.77636319997</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-90136.89596319998</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-89344.85516319997</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-89271.87516319998</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-89011.98516319998</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-88840.08086319997</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-88100.44486319997</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-89825.04566319997</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-92323.35166319997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-90712.57066319996</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-90150.04069785996</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-92419.62599785997</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-91055.57359785997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-91591.87949785998</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-91441.35809785998</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-92388.86969785998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-91716.80399785997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-92029.81879785997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-92504.82419785998</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-95896.92899785998</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-96214.85449785998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-95804.79369785998</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-97625.35829785997</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-97462.61339785997</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-98991.46279785997</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-98826.77829785997</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-98826.77829785997</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-98517.51299785997</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-98408.28049785997</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-98667.34419785997</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-98172.63749785998</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-106895.39699786</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-108170.63859786</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-105142.80489786</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-107410.29509786</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-109277.75099786</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-109277.75099786</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-109277.75099786</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-106155.15729786</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12133,14 +12133,10 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J356" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
@@ -12170,19 +12166,11 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J357" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12211,14 +12199,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>234.1</v>
       </c>
-      <c r="J358" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -12255,9 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12291,14 +12275,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>234.1</v>
       </c>
-      <c r="J360" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12332,12 +12314,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
         <v>234.1</v>
       </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12371,14 +12353,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>234.1</v>
       </c>
-      <c r="J362" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12412,12 +12392,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
         <v>234.1</v>
       </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12451,14 +12431,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>234.1</v>
       </c>
-      <c r="J364" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12492,14 +12470,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>234.1</v>
       </c>
-      <c r="J365" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,14 +12509,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>234.1</v>
       </c>
-      <c r="J366" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12574,14 +12548,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>234.1</v>
       </c>
-      <c r="J367" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12615,14 +12587,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>234.1</v>
       </c>
-      <c r="J368" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12656,14 +12626,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>234.1</v>
       </c>
-      <c r="J369" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12697,14 +12665,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>234.1</v>
       </c>
-      <c r="J370" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12738,14 +12704,12 @@
         <v>-142037.55959786</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>234.1</v>
       </c>
-      <c r="J371" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,14 +12743,12 @@
         <v>-143709.57479786</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>234.2</v>
       </c>
-      <c r="J372" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12820,14 +12782,12 @@
         <v>-143709.57479786</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>234.1</v>
       </c>
-      <c r="J373" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12861,14 +12821,12 @@
         <v>-140089.91349786</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>234.1</v>
       </c>
-      <c r="J374" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12902,14 +12860,12 @@
         <v>-136107.99339786</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>234.2</v>
       </c>
-      <c r="J375" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12943,14 +12899,12 @@
         <v>-136107.99339786</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>234.3</v>
       </c>
-      <c r="J376" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12984,14 +12938,12 @@
         <v>-135498.40649786</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>234.3</v>
       </c>
-      <c r="J377" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13025,14 +12977,10 @@
         <v>-135347.88359786</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="J378" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13069,9 +13017,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13108,9 +13054,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13147,9 +13091,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13186,9 +13128,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13225,9 +13165,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13261,14 +13199,10 @@
         <v>-137016.16279786</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="J384" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13302,14 +13236,10 @@
         <v>-137556.68479786</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="J385" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13346,9 +13276,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13382,14 +13310,10 @@
         <v>-136298.2439978599</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>236</v>
-      </c>
-      <c r="J387" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13423,14 +13347,10 @@
         <v>-135798.64379786</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="J388" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13464,14 +13384,10 @@
         <v>-136100.32519786</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>236.6</v>
-      </c>
-      <c r="J389" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13508,9 +13424,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13547,9 +13461,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13586,9 +13498,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13625,9 +13535,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13664,9 +13572,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13703,9 +13609,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13742,9 +13646,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13781,9 +13683,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13820,9 +13720,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13859,9 +13757,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13898,9 +13794,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13937,9 +13831,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13976,9 +13868,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14015,9 +13905,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14054,9 +13942,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14093,9 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14132,9 +14016,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14171,9 +14053,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14210,9 +14090,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14249,9 +14127,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14288,9 +14164,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14327,9 +14201,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14366,9 +14238,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14405,9 +14275,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14444,9 +14312,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14483,9 +14349,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14522,9 +14386,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14561,9 +14423,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14600,9 +14460,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14639,9 +14497,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14678,9 +14534,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14717,9 +14571,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14756,9 +14608,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14795,9 +14645,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14834,9 +14682,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14873,9 +14719,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14912,9 +14756,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14951,9 +14793,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14990,9 +14830,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15029,9 +14867,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15068,9 +14904,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15107,9 +14941,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15146,9 +14978,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15185,9 +15015,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15224,9 +15052,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15263,9 +15089,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15302,9 +15126,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15341,9 +15163,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15380,9 +15200,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15419,9 +15237,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15455,12 +15271,10 @@
         <v>-134175.8477978599</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15494,12 +15308,10 @@
         <v>-135648.6954978599</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15533,12 +15345,10 @@
         <v>-136321.2547978599</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15572,12 +15382,10 @@
         <v>-135416.8266978599</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15614,9 +15422,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15653,9 +15459,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15692,9 +15496,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15731,9 +15533,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15770,9 +15570,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,9 +15607,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15848,9 +15644,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15887,9 +15681,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15926,9 +15718,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15965,9 +15755,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16004,9 +15792,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16043,9 +15829,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16082,9 +15866,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16121,9 +15903,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16160,9 +15940,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16199,9 +15977,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16238,9 +16014,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16277,9 +16051,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16316,9 +16088,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16355,9 +16125,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16394,9 +16162,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16433,9 +16199,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16472,9 +16236,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16511,9 +16273,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,9 +16310,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,9 +16347,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16628,9 +16384,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16667,9 +16421,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16706,9 +16458,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16745,9 +16495,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16781,12 +16529,10 @@
         <v>-135613.24819786</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,12 +16566,10 @@
         <v>-134908.70479786</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16859,12 +16603,10 @@
         <v>-134986.84479786</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,9 +16643,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16937,12 +16677,10 @@
         <v>-135091.55559786</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16976,12 +16714,10 @@
         <v>-135910.86089786</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17015,12 +16751,10 @@
         <v>-135342.88769786</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17057,9 +16791,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17096,9 +16828,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,9 +16865,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17174,9 +16902,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17213,9 +16939,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17252,9 +16976,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17291,9 +17013,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17330,9 +17050,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17369,9 +17087,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17408,9 +17124,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17447,9 +17161,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17486,9 +17198,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17525,9 +17235,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17564,9 +17272,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17603,9 +17309,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17642,9 +17346,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17681,9 +17383,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17720,9 +17420,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17759,9 +17457,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17798,9 +17494,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17837,9 +17531,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17876,9 +17568,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17915,9 +17605,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17954,9 +17642,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17993,9 +17679,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18032,9 +17716,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18071,9 +17753,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18110,9 +17790,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18149,9 +17827,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18188,9 +17864,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,9 +17901,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18266,9 +17938,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18305,9 +17975,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,9 +18012,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18383,9 +18049,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18422,9 +18086,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18461,9 +18123,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18500,9 +18160,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18539,9 +18197,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,9 +18234,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18617,9 +18271,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18656,9 +18308,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18695,9 +18345,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18734,9 +18382,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18773,9 +18419,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18812,9 +18456,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18851,9 +18493,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18890,9 +18530,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18929,9 +18567,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18968,9 +18604,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19007,9 +18641,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19046,9 +18678,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19085,9 +18715,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19124,9 +18752,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19163,9 +18789,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19202,9 +18826,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19241,9 +18863,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19280,9 +18900,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19319,9 +18937,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19358,9 +18974,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19397,9 +19011,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,9 +19048,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19475,9 +19085,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19514,9 +19122,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19553,9 +19159,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19592,9 +19196,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,9 +19233,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19670,9 +19270,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19709,9 +19307,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19748,9 +19344,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19787,9 +19381,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19826,9 +19418,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19865,9 +19455,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19904,9 +19492,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19943,9 +19529,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19982,9 +19566,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20021,9 +19603,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20060,9 +19640,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20099,9 +19677,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20138,9 +19714,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20177,9 +19751,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20216,9 +19788,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20255,9 +19825,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20294,9 +19862,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20333,9 +19899,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20372,9 +19936,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20411,9 +19973,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20450,9 +20010,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20489,9 +20047,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20528,9 +20084,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20567,9 +20121,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20606,9 +20158,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20645,9 +20195,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20684,9 +20232,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20723,9 +20269,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20762,9 +20306,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20801,9 +20343,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20840,9 +20380,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20879,9 +20417,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20918,9 +20454,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20957,9 +20491,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20996,9 +20528,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21035,9 +20565,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21074,9 +20602,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21113,9 +20639,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21152,9 +20676,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21191,9 +20713,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21230,9 +20750,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21269,9 +20787,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21308,9 +20824,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21347,9 +20861,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21386,9 +20898,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21425,9 +20935,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21464,9 +20972,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21503,9 +21009,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21542,9 +21046,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21581,9 +21083,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21620,9 +21120,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21659,9 +21157,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21698,9 +21194,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21737,9 +21231,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21776,9 +21268,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21815,9 +21305,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21854,9 +21342,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21893,9 +21379,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21932,9 +21416,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21971,9 +21453,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22010,9 +21490,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22049,9 +21527,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22088,9 +21564,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22127,9 +21601,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22166,9 +21638,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22205,9 +21675,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22244,9 +21712,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22283,9 +21749,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22322,9 +21786,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22361,9 +21823,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22400,9 +21860,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22439,9 +21897,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22478,9 +21934,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22517,9 +21971,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22556,9 +22008,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22595,9 +22045,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22634,9 +22082,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22673,9 +22119,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22712,9 +22156,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22751,9 +22193,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22790,9 +22230,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22829,9 +22267,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22868,9 +22304,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22907,9 +22341,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22946,9 +22378,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22985,9 +22415,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23024,9 +22452,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23063,9 +22489,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23102,9 +22526,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23141,9 +22563,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23180,9 +22600,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23219,9 +22637,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23258,9 +22674,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23297,9 +22711,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23336,9 +22748,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23375,9 +22785,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23414,9 +22822,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23453,9 +22859,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23492,9 +22896,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23531,9 +22933,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23570,9 +22970,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23609,9 +23007,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23648,9 +23044,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23687,9 +23081,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23726,9 +23118,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23765,9 +23155,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23804,9 +23192,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23843,9 +23229,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23882,9 +23266,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23921,9 +23303,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23960,9 +23340,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23999,9 +23377,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24038,9 +23414,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24077,9 +23451,7 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24116,9 +23488,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24155,9 +23525,7 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24194,9 +23562,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24233,9 +23599,7 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24272,9 +23636,7 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24311,9 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24350,9 +23710,7 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24389,9 +23747,7 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24428,9 +23784,7 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24467,9 +23821,7 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24506,9 +23858,7 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24545,9 +23895,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24584,9 +23932,7 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24623,9 +23969,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24662,9 +24006,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24701,9 +24043,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24740,9 +24080,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24779,9 +24117,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24818,9 +24154,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24857,9 +24191,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24896,9 +24228,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24935,9 +24265,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24974,9 +24302,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25013,9 +24339,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25052,9 +24376,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25091,9 +24413,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25130,9 +24450,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25169,9 +24487,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25208,9 +24524,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25247,9 +24561,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25286,9 +24598,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25325,9 +24635,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25364,9 +24672,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25403,9 +24709,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25442,9 +24746,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25481,9 +24783,7 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25520,9 +24820,7 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25559,9 +24857,7 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25598,9 +24894,7 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25637,9 +24931,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25676,9 +24968,7 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25715,9 +25005,7 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25754,9 +25042,7 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25793,9 +25079,7 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25832,9 +25116,7 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25871,9 +25153,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25910,9 +25190,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25949,9 +25227,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25988,9 +25264,7 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26027,9 +25301,7 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26066,9 +25338,7 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26105,9 +25375,7 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26144,9 +25412,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26183,9 +25449,7 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26222,9 +25486,7 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26261,9 +25523,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26300,9 +25560,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26339,9 +25597,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26378,9 +25634,7 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26417,9 +25671,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26456,9 +25708,7 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26495,9 +25745,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26534,9 +25782,7 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26573,9 +25819,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26612,9 +25856,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26651,9 +25893,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26690,9 +25930,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26729,9 +25967,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26768,9 +26004,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26807,9 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26846,9 +26078,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26885,9 +26115,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26924,9 +26152,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26963,9 +26189,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27002,9 +26226,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27041,9 +26263,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27080,9 +26300,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27119,9 +26337,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27158,9 +26374,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27197,9 +26411,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27236,9 +26448,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27275,9 +26485,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27314,9 +26522,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27353,9 +26559,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27392,9 +26596,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27431,9 +26633,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27470,9 +26670,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27509,9 +26707,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27548,9 +26744,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27587,9 +26781,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27626,9 +26818,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27665,9 +26855,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27704,9 +26892,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27743,9 +26929,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27782,9 +26966,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27821,9 +27003,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27860,9 +27040,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27899,9 +27077,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27938,9 +27114,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27977,9 +27151,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28016,9 +27188,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28055,9 +27225,7 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28094,9 +27262,7 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28133,9 +27299,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28172,9 +27336,7 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28211,9 +27373,7 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28250,9 +27410,7 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28289,9 +27447,7 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28328,9 +27484,7 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28367,9 +27521,7 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28406,9 +27558,7 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28445,9 +27595,7 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28484,9 +27632,7 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28523,9 +27669,7 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28562,9 +27706,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28601,9 +27743,7 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28640,9 +27780,7 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28679,9 +27817,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28718,9 +27854,7 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28757,9 +27891,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28796,9 +27928,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28835,9 +27965,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28874,9 +28002,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28913,9 +28039,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28952,9 +28076,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28991,9 +28113,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29030,9 +28150,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29069,9 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29108,9 +28224,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29147,9 +28261,7 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29186,9 +28298,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29225,9 +28335,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29264,9 +28372,7 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29303,9 +28409,7 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29342,9 +28446,7 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29381,9 +28483,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29420,9 +28520,7 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29459,9 +28557,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29498,9 +28594,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29537,9 +28631,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29576,9 +28668,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29615,9 +28705,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29654,9 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29693,9 +28779,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29732,9 +28816,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29771,9 +28853,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29810,9 +28890,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29849,9 +28927,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29888,9 +28964,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29927,9 +29001,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29966,9 +29038,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30005,9 +29075,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30044,9 +29112,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30083,9 +29149,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30122,9 +29186,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30161,9 +29223,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30200,9 +29260,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30239,9 +29297,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30278,9 +29334,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30317,9 +29371,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30356,9 +29408,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30395,9 +29445,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30434,9 +29482,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30473,9 +29519,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30512,9 +29556,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30551,9 +29593,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30590,9 +29630,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30629,9 +29667,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30668,9 +29704,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30707,9 +29741,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30746,9 +29778,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30785,9 +29815,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30824,9 +29852,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30863,9 +29889,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30902,9 +29926,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30941,9 +29963,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30980,9 +30000,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31019,9 +30037,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31058,9 +30074,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31097,9 +30111,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31136,9 +30148,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31175,9 +30185,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31214,9 +30222,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31253,9 +30259,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31292,9 +30296,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31331,9 +30333,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31370,9 +30370,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31409,9 +30407,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31448,9 +30444,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31487,9 +30481,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31526,9 +30518,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31565,9 +30555,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31604,9 +30592,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31643,9 +30629,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31682,9 +30666,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31721,9 +30703,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31760,9 +30740,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31799,9 +30777,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31838,9 +30814,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31877,9 +30851,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31916,9 +30888,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31955,9 +30925,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>234.1</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31969,6 +30937,6 @@
       <c r="M863" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-13 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4609,7 +4609,7 @@
         <v>-82884.59436319997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-82915.42436319997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-82453.54706319998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-82207.50916319998</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-82416.94416319998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-82628.64356319998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-82334.65156319998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-83535.14566319998</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-83052.39566319998</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-84788.70906319997</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-85121.57926319998</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-85578.56876319998</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-84811.19946319997</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-84252.22466319997</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-85834.59816319997</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-85228.41896319998</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-87270.70616319998</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-86860.62076319999</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-88666.30976319998</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-88561.73976319998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-89593.30156319997</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-89331.71156319998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-88876.58186319997</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-90276.78226319997</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-92167.48716319998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-88450.96826319997</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-88547.00826319998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-88110.11176319998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-88264.49976319999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-88198.31676319998</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-89151.52986319998</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-88899.83106319998</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-89629.54646319998</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-89783.45666319998</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-89651.10626319998</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-89651.10626319998</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-89929.03966319998</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-89809.77636319997</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-90136.89596319998</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-89344.85516319997</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-89271.87516319998</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-89011.98516319998</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-88840.08086319997</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-88100.44486319997</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-89825.04566319997</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-92323.35166319997</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-90712.57066319996</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-90150.04069785996</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-92419.62599785997</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-91055.57359785997</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-91591.87949785998</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-91441.35809785998</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-92388.86969785998</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-91716.80399785997</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-92029.81879785997</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-92504.82419785998</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-95896.92899785998</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-96214.85449785998</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-95804.79369785998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-97625.35829785997</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-97462.61339785997</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-98991.46279785997</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-98826.77829785997</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-98826.77829785997</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-98517.51299785997</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-98408.28049785997</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-98667.34419785997</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-98172.63749785998</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-98617.45209785998</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-106895.39699786</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-108170.63859786</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-105142.80489786</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-107410.29509786</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-109277.75099786</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-109277.75099786</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-109277.75099786</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-106155.15729786</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12199,210 +12199,186 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
         <v>234.1</v>
       </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
+      <c r="C359" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="E359" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1063.6192</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-144161.35059786</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="C360" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="E360" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="F360" t="n">
+        <v>2487.4691</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-144161.35059786</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="E361" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1050.0664</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-144161.35059786</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="C362" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="D362" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1208.9001</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-144161.35059786</v>
+      </c>
+      <c r="H362" t="n">
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="J362" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>234</v>
+      </c>
+      <c r="C363" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="E363" t="n">
+        <v>234</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1317.5856</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-144161.35059786</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K363" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="C359" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="D359" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="E359" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1063.6192</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-144161.35059786</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="C360" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="D360" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="E360" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="F360" t="n">
-        <v>2487.4691</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-144161.35059786</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="C361" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="D361" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="E361" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="F361" t="n">
-        <v>1050.0664</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-144161.35059786</v>
-      </c>
-      <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="C362" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="D362" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="E362" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="F362" t="n">
-        <v>1208.9001</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-144161.35059786</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>234</v>
-      </c>
-      <c r="C363" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="D363" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="E363" t="n">
-        <v>234</v>
-      </c>
-      <c r="F363" t="n">
-        <v>1317.5856</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-144161.35059786</v>
-      </c>
-      <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12431,12 +12407,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="n">
         <v>234.1</v>
       </c>
-      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,12 +12446,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="n">
         <v>234.1</v>
       </c>
-      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12509,12 +12485,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="n">
         <v>234.1</v>
       </c>
-      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,12 +12524,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="n">
         <v>234.1</v>
       </c>
-      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12587,12 +12563,12 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="n">
         <v>234.1</v>
       </c>
-      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12631,7 +12607,9 @@
       <c r="I369" t="n">
         <v>234.1</v>
       </c>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12670,7 +12648,9 @@
       <c r="I370" t="n">
         <v>234.1</v>
       </c>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12709,7 +12689,9 @@
       <c r="I371" t="n">
         <v>234.1</v>
       </c>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12748,7 +12730,9 @@
       <c r="I372" t="n">
         <v>234.2</v>
       </c>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12787,7 +12771,9 @@
       <c r="I373" t="n">
         <v>234.1</v>
       </c>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12826,7 +12812,9 @@
       <c r="I374" t="n">
         <v>234.1</v>
       </c>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12865,7 +12853,9 @@
       <c r="I375" t="n">
         <v>234.2</v>
       </c>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12904,7 +12894,9 @@
       <c r="I376" t="n">
         <v>234.3</v>
       </c>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,12 +12930,12 @@
         <v>-135498.40649786</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>234.3</v>
-      </c>
-      <c r="J377" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12980,7 +12972,9 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13017,7 +13011,9 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13054,7 +13050,9 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13091,7 +13089,9 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13128,7 +13128,9 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13165,7 +13167,9 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13202,7 +13206,9 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13239,7 +13245,9 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13276,7 +13284,9 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13313,7 +13323,9 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13350,7 +13362,9 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13387,7 +13401,9 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13424,7 +13440,9 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13461,7 +13479,9 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13498,7 +13518,9 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13535,7 +13557,9 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13572,7 +13596,9 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13609,7 +13635,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13646,7 +13674,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13683,7 +13713,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13720,7 +13752,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13757,7 +13791,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13794,7 +13830,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13831,7 +13869,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13865,17 +13905,19 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L402" t="n">
-        <v>1</v>
+        <v>1.006106364801367</v>
       </c>
       <c r="M402" t="inlineStr"/>
     </row>
@@ -13902,15 +13944,11 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13981,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +14014,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14013,15 +14043,11 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14050,15 +14076,11 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +14113,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14124,15 +14142,11 @@
         <v>-137270.3980978599</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14161,15 +14175,11 @@
         <v>-137428.0124978599</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14198,15 +14208,11 @@
         <v>-137571.7672978599</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14235,15 +14241,11 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14272,15 +14274,11 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14309,15 +14307,11 @@
         <v>-138015.7824978599</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +14344,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +14377,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +14410,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +14443,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +14476,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14531,15 +14505,11 @@
         <v>-136735.6308978599</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14568,15 +14538,11 @@
         <v>-139981.7468978599</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14605,15 +14571,11 @@
         <v>-139630.4908978599</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +14608,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +14641,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +14674,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +14707,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +14740,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +14773,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +14806,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14839,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +14872,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +14905,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +14938,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +14971,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +15004,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15037,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +15070,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +15103,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +15136,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +15169,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15312,11 +15202,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15349,11 +15235,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15386,11 +15268,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +15301,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15460,11 +15334,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15497,11 +15367,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +15400,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +15433,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +15466,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +15499,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +15532,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15719,11 +15565,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +15598,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +15631,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15830,11 +15664,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +15697,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +15730,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15941,11 +15763,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +15796,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +15829,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +15862,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +15895,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +15928,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +15961,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +15994,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +16027,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +16060,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +16093,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +16126,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +16159,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16422,11 +16192,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +16225,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16496,11 +16258,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16533,11 +16291,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16570,11 +16324,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16607,11 +16357,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16644,11 +16390,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16681,11 +16423,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16718,11 +16456,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16755,11 +16489,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16792,11 +16522,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +16555,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16866,11 +16588,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16903,11 +16621,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16940,11 +16654,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16977,11 +16687,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +16720,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +16753,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17088,11 +16786,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17125,11 +16819,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17162,11 +16852,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17199,11 +16885,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17236,11 +16918,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17273,11 +16951,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +16984,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17017,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17384,11 +17050,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17421,11 +17083,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17458,11 +17116,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17495,11 +17149,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17532,11 +17182,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17569,11 +17215,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17606,11 +17248,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17643,11 +17281,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17680,11 +17314,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17717,11 +17347,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17754,11 +17380,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17791,11 +17413,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17828,11 +17446,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17865,11 +17479,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +17512,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17939,11 +17545,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +17578,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18013,11 +17611,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18050,11 +17644,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18087,11 +17677,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18124,11 +17710,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18161,11 +17743,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18198,11 +17776,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18235,11 +17809,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18272,11 +17842,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18309,11 +17875,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18346,11 +17908,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18383,11 +17941,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +17974,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18457,11 +18007,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18494,11 +18040,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18531,11 +18073,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18106,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18605,11 +18139,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18642,11 +18172,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18679,11 +18205,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18716,11 +18238,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18753,11 +18271,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18790,11 +18304,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18827,11 +18337,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18864,11 +18370,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +18403,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18938,11 +18436,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18975,11 +18469,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19012,11 +18502,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19049,11 +18535,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19086,11 +18568,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19123,11 +18601,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19160,11 +18634,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +18667,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19234,11 +18700,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19271,11 +18733,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19308,11 +18766,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19345,11 +18799,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19382,11 +18832,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19419,11 +18865,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19456,11 +18898,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +18931,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19530,11 +18964,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19567,11 +18997,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19604,11 +19030,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19641,11 +19063,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19678,11 +19096,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19715,11 +19129,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19752,11 +19162,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +19195,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19826,11 +19228,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19863,11 +19261,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19900,11 +19294,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19937,11 +19327,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19974,11 +19360,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20011,11 +19393,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20048,11 +19426,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20085,11 +19459,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20122,11 +19492,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20159,11 +19525,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20196,11 +19558,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20233,11 +19591,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20270,11 +19624,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20307,11 +19657,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20344,11 +19690,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20381,11 +19723,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20418,11 +19756,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20455,11 +19789,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20492,11 +19822,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20529,11 +19855,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20566,11 +19888,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20603,11 +19921,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20640,11 +19954,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20677,11 +19987,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20714,11 +20020,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20751,11 +20053,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20788,11 +20086,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20825,11 +20119,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20862,11 +20152,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20899,11 +20185,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20936,11 +20218,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20973,11 +20251,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +20284,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21047,11 +20317,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21084,11 +20350,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21121,11 +20383,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21158,11 +20416,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21195,11 +20449,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21232,11 +20482,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21269,11 +20515,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21306,11 +20548,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21343,11 +20581,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21380,11 +20614,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21417,11 +20647,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21454,11 +20680,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21491,11 +20713,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21528,11 +20746,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21565,11 +20779,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21602,11 +20812,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21639,11 +20845,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21676,11 +20878,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21713,11 +20911,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21750,11 +20944,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21787,11 +20977,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21824,11 +21010,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21861,11 +21043,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21894,13 +21072,15 @@
         <v>-161422.5320978601</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>237.2</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L619" t="n">
@@ -22005,9 +21185,11 @@
         <v>-162769.1607978601</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>236.4</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22042,9 +21224,11 @@
         <v>-163137.7701978601</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
@@ -25409,9 +24593,11 @@
         <v>-164916.06729786</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>235.8</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -27185,9 +26371,11 @@
         <v>-171312.85889786</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>234.6</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -27222,9 +26410,11 @@
         <v>-171186.9588978601</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>235.1</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -27259,9 +26449,11 @@
         <v>-170322.46299786</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>235.2</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -27296,9 +26488,11 @@
         <v>-171480.31169786</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27333,9 +26527,11 @@
         <v>-171217.54639786</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>235</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -27370,9 +26566,11 @@
         <v>-170724.4589978601</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>235.1</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -27407,9 +26605,11 @@
         <v>-172944.3602978601</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -27444,9 +26644,11 @@
         <v>-172696.91029786</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>235</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -27481,9 +26683,11 @@
         <v>-172608.04029786</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>235.1</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -27518,9 +26722,11 @@
         <v>-172087.96469786</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>235.2</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -27555,9 +26761,11 @@
         <v>-171399.31519786</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>235.3</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -27592,9 +26800,11 @@
         <v>-170585.48319786</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>235.4</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -27629,9 +26839,11 @@
         <v>-169474.74129786</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>235.7</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -29146,18 +28358,16 @@
         <v>-212267.78109786</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L815" t="n">
-        <v>1</v>
-      </c>
+      <c r="L815" t="inlineStr"/>
       <c r="M815" t="inlineStr"/>
     </row>
     <row r="816">
@@ -29187,11 +28397,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29224,11 +28430,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29261,11 +28463,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29298,11 +28496,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29335,11 +28529,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29372,11 +28562,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29409,11 +28595,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29446,11 +28628,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29483,11 +28661,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29520,11 +28694,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +28727,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29594,11 +28760,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29631,11 +28793,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29668,11 +28826,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29705,11 +28859,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29742,11 +28892,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29779,11 +28925,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29816,11 +28958,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29853,11 +28991,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29890,11 +29024,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29927,11 +29057,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29964,11 +29090,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30001,11 +29123,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30038,11 +29156,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30075,11 +29189,7 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30112,11 +29222,7 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30149,11 +29255,7 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30186,11 +29288,7 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30223,11 +29321,7 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30260,11 +29354,7 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30297,11 +29387,7 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30334,11 +29420,7 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30371,11 +29453,7 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30408,11 +29486,7 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30445,11 +29519,7 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30478,13 +29548,15 @@
         <v>-230709.4404978601</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>236.8</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L851" t="n">
@@ -30515,9 +29587,11 @@
         <v>-230593.4652978601</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>236.7</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -30937,6 +30011,6 @@
       <c r="M863" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-13 BackTest LUNA.xlsx
@@ -4411,7 +4411,7 @@
         <v>-83342.35536319997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-83134.40236319997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-83328.65046319997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-83328.65046319997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-83088.24416319997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-83113.64416319996</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-82884.59436319997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-82915.42436319997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-82453.54706319998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-82207.50916319998</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-82462.75416319998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-82416.94416319998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-82628.64356319998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-82842.74266319998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-82334.65156319998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-83801.69406319998</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-83535.14566319998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-83224.16566319998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-83052.39566319998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-84788.70906319997</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-84707.23906319997</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-85121.57926319998</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-85578.56876319998</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-84811.19946319997</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-84252.22466319997</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-85834.59816319997</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-85228.41896319998</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-87270.70616319998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-86860.62076319999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-88666.30976319998</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-88561.73976319998</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-89593.30156319997</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-89465.40156319998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-89331.71156319998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-88876.58186319997</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-90968.08706319997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-90276.78226319997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-92046.35716319998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-92167.48716319998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-90284.74196319998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-88450.96826319997</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-88498.09826319998</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-88547.00826319998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-88110.11176319998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-88541.84286319999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-88264.49976319999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-88198.31676319998</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-88517.38036319998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-89151.52986319998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-87639.13486319997</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-88840.08086319997</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-88100.44486319997</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-90339.24786319997</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-89825.04566319997</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-89775.93566319997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-92323.35166319997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-90712.57066319996</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-90150.04069785996</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-92419.62599785997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-91055.57359785997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-91591.87949785998</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-91441.35809785998</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-92388.86969785998</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-92145.16829785997</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-91716.80399785997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-92029.81879785997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-91940.91879785998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-92504.82419785998</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-93476.79389785999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-95896.92899785998</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-96214.85449785998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -12331,14 +12331,10 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="J362" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
@@ -12371,14 +12367,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>234.1</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12407,17 +12397,15 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>234.1</v>
+      </c>
       <c r="J364" t="n">
         <v>234.1</v>
       </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12446,15 +12434,17 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>234.1</v>
+      </c>
       <c r="J365" t="n">
         <v>234.1</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -12485,15 +12475,17 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>234.1</v>
+      </c>
       <c r="J366" t="n">
         <v>234.1</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12524,17 +12516,15 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>234.1</v>
+      </c>
       <c r="J367" t="n">
         <v>234.1</v>
       </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12563,15 +12553,17 @@
         <v>-144161.35059786</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>234.1</v>
+      </c>
       <c r="J368" t="n">
         <v>234.1</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L368" t="n">
@@ -12612,7 +12604,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L369" t="n">
@@ -12651,11 +12643,7 @@
       <c r="J370" t="n">
         <v>234.1</v>
       </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12694,7 +12682,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L371" t="n">
@@ -12930,9 +12918,11 @@
         <v>-135498.40649786</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>234.3</v>
+      </c>
       <c r="J377" t="n">
         <v>234.1</v>
       </c>
@@ -13905,7 +13895,7 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
@@ -13913,11 +13903,11 @@
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L402" t="n">
-        <v>1.006106364801367</v>
+        <v>1</v>
       </c>
       <c r="M402" t="inlineStr"/>
     </row>
@@ -13944,11 +13934,17 @@
         <v>-136644.9835978599</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13980,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14013,8 +14015,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14043,11 +14051,17 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14076,11 +14090,17 @@
         <v>-136480.3700978599</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14112,8 +14132,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14142,11 +14168,17 @@
         <v>-137270.3980978599</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14175,11 +14207,17 @@
         <v>-137428.0124978599</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +14246,17 @@
         <v>-137571.7672978599</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +14285,17 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14274,11 +14324,17 @@
         <v>-138186.6930978599</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14307,11 +14363,17 @@
         <v>-138015.7824978599</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14343,8 +14405,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14376,8 +14444,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14409,8 +14483,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +14522,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14475,8 +14561,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14505,11 +14597,17 @@
         <v>-136735.6308978599</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14538,11 +14636,17 @@
         <v>-139981.7468978599</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14571,11 +14675,17 @@
         <v>-139630.4908978599</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14607,8 +14717,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +14756,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +14795,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14706,8 +14834,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +14873,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +14912,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +14951,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14838,8 +14990,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +15029,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +15068,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14937,8 +15107,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14970,8 +15146,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +15185,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +15224,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +15263,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +15302,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +15341,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +15380,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +15419,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +15458,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +15497,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +15536,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +15575,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +15614,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +15653,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +15692,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +15731,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +15770,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +15809,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +15848,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15597,8 +15887,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15630,8 +15926,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15663,8 +15965,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15696,8 +16004,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15729,8 +16043,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15762,8 +16082,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +16121,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15828,8 +16160,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15861,8 +16199,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15894,8 +16238,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15927,8 +16277,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +16316,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15993,8 +16355,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16026,8 +16394,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16059,8 +16433,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16092,8 +16472,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16125,8 +16511,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16158,8 +16550,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16191,8 +16589,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16224,8 +16628,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16257,8 +16667,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16290,8 +16706,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16323,8 +16745,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16356,8 +16784,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +16823,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +16862,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +16901,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +16940,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +16979,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +17018,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +17057,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +17096,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +17135,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +17174,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +17213,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +17252,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +17291,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +17330,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +17369,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +17408,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16917,8 +17447,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16950,8 +17486,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16983,8 +17525,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17016,8 +17564,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17049,8 +17603,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17082,8 +17642,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17115,8 +17681,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17148,8 +17720,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17181,8 +17759,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17214,8 +17798,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17247,8 +17837,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17280,8 +17876,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17313,8 +17915,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17346,8 +17954,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17379,8 +17993,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17412,8 +18032,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17445,8 +18071,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17478,8 +18110,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17511,8 +18149,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17544,8 +18188,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17577,8 +18227,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17610,8 +18266,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17643,8 +18305,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17676,8 +18344,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17709,8 +18383,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17742,8 +18422,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17775,8 +18461,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17808,8 +18500,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17841,8 +18539,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17874,8 +18578,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17907,8 +18617,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17940,8 +18656,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17973,8 +18695,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18006,8 +18734,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18039,8 +18773,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18072,8 +18812,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18105,8 +18851,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18138,8 +18890,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18171,8 +18929,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18204,8 +18968,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18237,8 +19007,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18270,8 +19046,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18303,8 +19085,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18336,8 +19124,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18369,8 +19163,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18402,8 +19202,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18435,8 +19241,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18468,8 +19280,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18501,8 +19319,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18534,8 +19358,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18567,8 +19397,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18600,8 +19436,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18633,8 +19475,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18666,8 +19514,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18699,8 +19553,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18732,8 +19592,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18765,8 +19631,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18798,8 +19670,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18831,8 +19709,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18864,8 +19748,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18897,8 +19787,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18930,8 +19826,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18963,8 +19865,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18996,8 +19904,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19029,8 +19943,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19062,8 +19982,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19095,8 +20021,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19128,8 +20060,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19161,8 +20099,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19194,8 +20138,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19227,8 +20177,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19260,8 +20216,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19293,8 +20255,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19326,8 +20294,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19359,8 +20333,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19392,8 +20372,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19425,8 +20411,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19458,8 +20450,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19491,8 +20489,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19524,8 +20528,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19557,8 +20567,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19590,8 +20606,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19623,8 +20645,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19656,8 +20684,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19689,8 +20723,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19722,8 +20762,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19755,8 +20801,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19788,8 +20840,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19821,8 +20879,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19854,8 +20918,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19887,8 +20957,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19920,8 +20996,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19953,8 +21035,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19986,8 +21074,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20019,8 +21113,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20052,8 +21152,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20085,8 +21191,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20118,8 +21230,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20151,8 +21269,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20184,8 +21308,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20217,8 +21347,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20250,8 +21386,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20283,8 +21425,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20316,8 +21464,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20349,8 +21503,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20382,8 +21542,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20415,8 +21581,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20448,8 +21620,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20481,8 +21659,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20514,8 +21698,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20547,8 +21737,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20580,8 +21776,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20613,8 +21815,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20646,8 +21854,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20679,8 +21893,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20712,8 +21932,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20745,8 +21971,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20778,8 +22010,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20811,8 +22049,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20844,8 +22088,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20877,8 +22127,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20910,8 +22166,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20943,8 +22205,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20976,8 +22244,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21009,8 +22283,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21042,8 +22322,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21072,15 +22358,15 @@
         <v>-161422.5320978601</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="J619" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L619" t="n">
@@ -21114,7 +22400,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21151,7 +22439,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21185,12 +22475,12 @@
         <v>-162769.1607978601</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="J622" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21224,12 +22514,12 @@
         <v>-163137.7701978601</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="J623" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21266,7 +22556,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21303,7 +22595,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,7 +22634,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21377,7 +22673,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21414,7 +22712,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21451,7 +22751,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21488,7 +22790,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21525,7 +22829,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21562,7 +22868,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21599,7 +22907,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21636,7 +22946,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21673,7 +22985,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21710,7 +23024,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21747,7 +23063,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21784,7 +23102,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21821,7 +23141,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21858,7 +23180,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21895,7 +23219,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21932,7 +23258,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21969,7 +23297,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22006,7 +23336,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22043,7 +23375,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22080,7 +23414,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22117,7 +23453,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22154,7 +23492,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22191,7 +23531,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22228,7 +23570,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22265,7 +23609,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22302,7 +23648,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22339,7 +23687,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22376,7 +23726,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22413,7 +23765,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22450,7 +23804,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22487,7 +23843,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22524,7 +23882,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22561,7 +23921,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22598,7 +23960,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22635,7 +23999,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22672,7 +24038,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22709,7 +24077,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22746,7 +24116,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,7 +24155,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22820,7 +24194,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22857,7 +24233,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22894,7 +24272,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22931,7 +24311,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22968,7 +24350,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23005,7 +24389,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23042,7 +24428,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23079,7 +24467,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23116,7 +24506,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23153,7 +24545,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23190,7 +24584,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23227,7 +24623,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23264,7 +24662,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23301,7 +24701,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23338,7 +24740,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23375,7 +24779,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23412,7 +24818,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23449,7 +24857,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23486,7 +24896,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23523,7 +24935,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23560,7 +24974,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23597,7 +25013,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23634,7 +25052,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23671,7 +25091,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23708,7 +25130,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23745,7 +25169,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23782,7 +25208,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23819,7 +25247,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23856,7 +25286,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23893,7 +25325,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23930,7 +25364,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23967,7 +25403,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24004,7 +25442,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24041,7 +25481,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24078,7 +25520,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24115,7 +25559,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24152,7 +25598,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24189,7 +25637,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,7 +25676,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24263,7 +25715,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24300,7 +25754,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24337,7 +25793,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24374,7 +25832,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24411,7 +25871,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24448,7 +25910,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24485,7 +25949,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24522,7 +25988,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24559,7 +26027,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24593,12 +26063,12 @@
         <v>-164916.06729786</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>235.8</v>
-      </c>
-      <c r="J714" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24635,7 +26105,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24672,7 +26144,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24709,7 +26183,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24746,7 +26222,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24783,7 +26261,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24820,7 +26300,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24857,7 +26339,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24894,7 +26378,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24931,7 +26417,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24968,7 +26456,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25005,7 +26495,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25042,7 +26534,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25079,7 +26573,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25116,7 +26612,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25153,7 +26651,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25190,7 +26690,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25227,7 +26729,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25264,7 +26768,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25301,7 +26807,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25338,7 +26846,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25375,7 +26885,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25412,7 +26924,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25449,7 +26963,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25486,7 +27002,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25523,7 +27041,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25560,7 +27080,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25597,7 +27119,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25634,7 +27158,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25671,7 +27197,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25708,7 +27236,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25745,7 +27275,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25782,7 +27314,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25819,7 +27353,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25856,7 +27392,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25893,7 +27431,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25930,7 +27470,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25967,7 +27509,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26004,7 +27548,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26041,7 +27587,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26078,7 +27626,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26115,7 +27665,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26152,7 +27704,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26189,7 +27743,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26226,7 +27782,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26263,7 +27821,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26300,7 +27860,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26337,7 +27899,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26371,12 +27935,12 @@
         <v>-171312.85889786</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="J762" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26410,12 +27974,12 @@
         <v>-171186.9588978601</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="J763" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26449,12 +28013,12 @@
         <v>-170322.46299786</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="J764" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26488,12 +28052,12 @@
         <v>-171480.31169786</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="J765" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26527,12 +28091,12 @@
         <v>-171217.54639786</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>235</v>
-      </c>
-      <c r="J766" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26566,12 +28130,12 @@
         <v>-170724.4589978601</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="J767" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26605,12 +28169,12 @@
         <v>-172944.3602978601</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="J768" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26644,12 +28208,12 @@
         <v>-172696.91029786</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>235</v>
-      </c>
-      <c r="J769" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26683,12 +28247,12 @@
         <v>-172608.04029786</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="J770" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26722,12 +28286,12 @@
         <v>-172087.96469786</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="J771" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26761,12 +28325,12 @@
         <v>-171399.31519786</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26800,12 +28364,12 @@
         <v>-170585.48319786</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>235.4</v>
-      </c>
-      <c r="J773" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26839,12 +28403,12 @@
         <v>-169474.74129786</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>235.7</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26881,7 +28445,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26918,7 +28484,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26955,7 +28523,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26992,7 +28562,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27029,7 +28601,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27066,7 +28640,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27103,7 +28679,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27140,7 +28718,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27177,7 +28757,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27214,7 +28796,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27251,7 +28835,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27288,7 +28874,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27325,7 +28913,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27362,7 +28952,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27399,7 +28991,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27436,7 +29030,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27473,7 +29069,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27510,7 +29108,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27547,7 +29147,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27584,7 +29186,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27621,7 +29225,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27658,7 +29264,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27695,7 +29303,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27732,7 +29342,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27769,7 +29381,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27806,7 +29420,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27843,7 +29459,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27880,7 +29498,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27917,7 +29537,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27954,7 +29576,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27991,7 +29615,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28028,7 +29654,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28065,7 +29693,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28102,7 +29732,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28139,7 +29771,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28176,7 +29810,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28213,7 +29849,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28250,7 +29888,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28287,7 +29927,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28324,7 +29966,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28358,16 +30002,20 @@
         <v>-212267.78109786</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L815" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L815" t="n">
+        <v>1</v>
+      </c>
       <c r="M815" t="inlineStr"/>
     </row>
     <row r="816">
@@ -28396,8 +30044,14 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28429,8 +30083,14 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28462,8 +30122,14 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28495,8 +30161,14 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28528,8 +30200,14 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28561,8 +30239,14 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28594,8 +30278,14 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28627,8 +30317,14 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28660,8 +30356,14 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28693,8 +30395,14 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28726,8 +30434,14 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28759,8 +30473,14 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28792,8 +30512,14 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28825,8 +30551,14 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28858,8 +30590,14 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28891,8 +30629,14 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28924,8 +30668,14 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28957,8 +30707,14 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28990,8 +30746,14 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29023,8 +30785,14 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29056,8 +30824,14 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29089,8 +30863,14 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29122,8 +30902,14 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29155,8 +30941,14 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29188,8 +30980,14 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29221,8 +31019,14 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29254,8 +31058,14 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29287,8 +31097,14 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29320,8 +31136,14 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29353,8 +31175,14 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29386,8 +31214,14 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29419,8 +31253,14 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -29452,8 +31292,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -29485,8 +31331,14 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29518,8 +31370,14 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>234.1</v>
+      </c>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -29548,15 +31406,15 @@
         <v>-230709.4404978601</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>236.8</v>
-      </c>
-      <c r="J851" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L851" t="n">
@@ -29587,12 +31445,12 @@
         <v>-230593.4652978601</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>236.7</v>
-      </c>
-      <c r="J852" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29629,7 +31487,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29666,7 +31526,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29703,7 +31565,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29740,7 +31604,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29777,7 +31643,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29814,7 +31682,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29851,7 +31721,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29888,7 +31760,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29925,7 +31799,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29962,7 +31838,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29999,7 +31877,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>234.1</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
